--- a/biology/Zoologie/Allactaga_williamsi/Allactaga_williamsi.xlsx
+++ b/biology/Zoologie/Allactaga_williamsi/Allactaga_williamsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allactaga williamsi est une espèce de la famille des Dipodidés. Cette gerboise, présente en Afghanistan, Arménie, Azerbaïdjan, Iran et Turquie, n'est pas considérée comme étant en danger par l'Union internationale pour la conservation de la nature (UICN).
 </t>
